--- a/Excel/FlockMetadataValidation.xlsx
+++ b/Excel/FlockMetadataValidation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>

--- a/Excel/FlockMetadataValidation.xlsx
+++ b/Excel/FlockMetadataValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3039CA-AB80-4CB3-8D78-7844D2CEE03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D11715-3DFE-4047-ACF8-101D96A2B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="84" windowWidth="18924" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
@@ -148,22 +148,10 @@
     <t>Bird</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>1234</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>2500</t>
@@ -175,17 +163,19 @@
     <t>10</t>
   </si>
   <si>
-    <t>20</t>
+    <t>50</t>
   </si>
   <si>
-    <t>50</t>
+    <t>BIRD_SIZE</t>
+  </si>
+  <si>
+    <t>Small</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -582,51 +572,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL289"/>
+  <dimension ref="A1:AM289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.8984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="8.796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.796875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="22.69921875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="29.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="29.8984375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="28.3984375" collapsed="true"/>
-    <col min="22" max="23" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="21.796875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="31.796875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="30.796875" collapsed="true"/>
-    <col min="31" max="32" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="1" max="1" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.796875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.796875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="19.796875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="25.796875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.796875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="29.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="25.796875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.796875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="28.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="25.796875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.796875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="31.796875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.796875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.796875" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.796875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.796875" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="30.796875" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="3.796875" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.796875" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="7.796875" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.796875" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="25.796875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,8 +731,11 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -756,7 +749,7 @@
         <v>44449</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -774,10 +767,10 @@
         <v>1089008</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M2" s="2">
         <v>55500</v>
@@ -792,22 +785,22 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
         <v>45</v>
       </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2" s="2">
         <v>1</v>
@@ -843,8 +836,11 @@
       <c r="AL2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
@@ -882,7 +878,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -920,7 +916,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -958,7 +954,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -996,7 +992,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -1034,7 +1030,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -1072,7 +1068,7 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -1110,7 +1106,7 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
     </row>
-    <row r="10" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -1148,7 +1144,7 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
     </row>
-    <row r="11" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1186,7 +1182,7 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
     </row>
-    <row r="12" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
@@ -1224,7 +1220,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
     </row>
-    <row r="13" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
@@ -1262,7 +1258,7 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
     </row>
-    <row r="14" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -1300,7 +1296,7 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
     </row>
-    <row r="15" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -1338,7 +1334,7 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>

--- a/Excel/FlockMetadataValidation.xlsx
+++ b/Excel/FlockMetadataValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D11715-3DFE-4047-ACF8-101D96A2B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E6969-1FCC-44A9-AF54-104F058BEBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="84" windowWidth="18924" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
-  </si>
-  <si>
-    <t>SITE_ID</t>
-  </si>
-  <si>
-    <t>HATCH_DATE</t>
   </si>
   <si>
     <t>PLACEMENT_DATE</t>
   </si>
   <si>
     <t>NUM_BIRDS_PLACED</t>
-  </si>
-  <si>
-    <t>BIRD_TYPE</t>
   </si>
   <si>
     <t>BIRD_SEX</t>
@@ -79,22 +70,10 @@
     <t>NUM_BIRDS_CONDEMNED_WHOLE</t>
   </si>
   <si>
-    <t>BIRD_WEIGHT_CONDEMNED_LB</t>
-  </si>
-  <si>
-    <t>BIRD_WEIGHT_CONDEMNED_KG</t>
-  </si>
-  <si>
     <t>PARTS_WEIGHT_CONDEMNED_LB</t>
   </si>
   <si>
     <t>PARTS_WEIGHT_CONDEMNED_KG</t>
-  </si>
-  <si>
-    <t>TOTAL_AMOUNT_PAID_USD</t>
-  </si>
-  <si>
-    <t>TOTAL_AMOUNT_PAID_USD_WEIGHT_LB</t>
   </si>
   <si>
     <t>TOTAL_COST_USD_PER_WEIGHT_LB</t>
@@ -130,40 +109,7 @@
     <t>A_GRADE_PAWS_PERC</t>
   </si>
   <si>
-    <t>LAST_7_DAY_MORTALITY_PERC</t>
-  </si>
-  <si>
     <t>OUT_TIME_DAYS</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>All male</t>
-  </si>
-  <si>
-    <t>Test_29112021</t>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>BIRD_SIZE</t>
@@ -171,12 +117,72 @@
   <si>
     <t>Small</t>
   </si>
+  <si>
+    <t>UNIQUE_FLOCK_ID</t>
+  </si>
+  <si>
+    <t>FARM_SITE_ID</t>
+  </si>
+  <si>
+    <t>DOWNGRADE_PAWS_PERC</t>
+  </si>
+  <si>
+    <t>USDA_PLANT_ID</t>
+  </si>
+  <si>
+    <t>TIME_FRAME</t>
+  </si>
+  <si>
+    <t>TOTAL_MORTALITY</t>
+  </si>
+  <si>
+    <t>TOTAL_GROWER_PAY</t>
+  </si>
+  <si>
+    <t>AMOUNT_PAID_PER_POUND</t>
+  </si>
+  <si>
+    <t>MARKETING_PROGRAM</t>
+  </si>
+  <si>
+    <t>A02306</t>
+  </si>
+  <si>
+    <t>2022-02-02</t>
+  </si>
+  <si>
+    <t>LRLBL0227-1033011</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>1001186</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +195,12 @@
       <color rgb="FF343A40"/>
       <name val="Heebo"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -572,16 +584,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM289"/>
+  <dimension ref="A1:AN287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1" collapsed="1"/>
@@ -614,233 +626,188 @@
     <col min="36" max="36" width="17.796875" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="25.796875" customWidth="1" collapsed="1"/>
     <col min="38" max="38" width="13.796875" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AN1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1001184</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
+      <c r="AN2" s="2" t="s">
+        <v>51</v>
       </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>1090023</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44409</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44449</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44507</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1089008</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="2">
-        <v>55500</v>
-      </c>
-      <c r="N2" s="2">
-        <v>40550</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2">
-        <v>1</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2">
-        <v>0.12346</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>11</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
@@ -878,7 +845,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -916,7 +883,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -954,7 +921,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -992,7 +959,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -1030,7 +997,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -1068,7 +1035,7 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -1106,7 +1073,7 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
     </row>
-    <row r="10" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -1144,7 +1111,7 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
     </row>
-    <row r="11" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1182,7 +1149,7 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
     </row>
-    <row r="12" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
@@ -1220,7 +1187,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
     </row>
-    <row r="13" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
@@ -1258,7 +1225,7 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
     </row>
-    <row r="14" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -1296,7 +1263,7 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
     </row>
-    <row r="15" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -1334,7 +1301,7 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -11670,87 +11637,9 @@
       <c r="AK287" s="2"/>
       <c r="AL287" s="2"/>
     </row>
-    <row r="288" spans="3:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C288" s="1"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="3"/>
-      <c r="J288" s="2"/>
-      <c r="K288" s="2"/>
-      <c r="L288" s="2"/>
-      <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
-      <c r="O288" s="2"/>
-      <c r="P288" s="2"/>
-      <c r="Q288" s="2"/>
-      <c r="R288" s="2"/>
-      <c r="S288" s="2"/>
-      <c r="T288" s="2"/>
-      <c r="U288" s="2"/>
-      <c r="V288" s="2"/>
-      <c r="W288" s="2"/>
-      <c r="X288" s="2"/>
-      <c r="Y288" s="2"/>
-      <c r="Z288" s="2"/>
-      <c r="AA288" s="2"/>
-      <c r="AB288" s="2"/>
-      <c r="AC288" s="2"/>
-      <c r="AD288" s="2"/>
-      <c r="AE288" s="2"/>
-      <c r="AF288" s="2"/>
-      <c r="AG288" s="2"/>
-      <c r="AH288" s="2"/>
-      <c r="AI288" s="2"/>
-      <c r="AJ288" s="2"/>
-      <c r="AK288" s="2"/>
-      <c r="AL288" s="2"/>
-    </row>
-    <row r="289" spans="3:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C289" s="1"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="3"/>
-      <c r="J289" s="2"/>
-      <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
-      <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
-      <c r="O289" s="2"/>
-      <c r="P289" s="2"/>
-      <c r="Q289" s="2"/>
-      <c r="R289" s="2"/>
-      <c r="S289" s="2"/>
-      <c r="T289" s="2"/>
-      <c r="U289" s="2"/>
-      <c r="V289" s="2"/>
-      <c r="W289" s="2"/>
-      <c r="X289" s="2"/>
-      <c r="Y289" s="2"/>
-      <c r="Z289" s="2"/>
-      <c r="AA289" s="2"/>
-      <c r="AB289" s="2"/>
-      <c r="AC289" s="2"/>
-      <c r="AD289" s="2"/>
-      <c r="AE289" s="2"/>
-      <c r="AF289" s="2"/>
-      <c r="AG289" s="2"/>
-      <c r="AH289" s="2"/>
-      <c r="AI289" s="2"/>
-      <c r="AJ289" s="2"/>
-      <c r="AK289" s="2"/>
-      <c r="AL289" s="2"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:AL1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>